--- a/Microsoft Excel/Tanvir/Day 04.xlsx
+++ b/Microsoft Excel/Tanvir/Day 04.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarato/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADCCFD1-4ABB-F741-B20F-6D162DAADE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA2FF07-A5C9-734E-90F9-84BF7F92275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{63B38B57-2E46-1745-921D-312AEBA70954}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="4" xr2:uid="{63B38B57-2E46-1745-921D-312AEBA70954}"/>
   </bookViews>
   <sheets>
     <sheet name="24 January 2025" sheetId="1" r:id="rId1"/>
     <sheet name="Table, Resize, Removing Dublica" sheetId="2" r:id="rId2"/>
     <sheet name="Table Styles" sheetId="3" r:id="rId3"/>
     <sheet name="Excel Conditional Format" sheetId="4" r:id="rId4"/>
+    <sheet name="Highlight Cell rules" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="98">
   <si>
     <t xml:space="preserve">    Name</t>
   </si>
@@ -233,6 +234,105 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Sp. Atk</t>
+  </si>
+  <si>
+    <t>Sp. Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Magikarp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Gyarados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Lapras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Ditto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Eevee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Vaporeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Jolteon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Name</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bulbasaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Charmander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Squirtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Chikorita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Cyndaquil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Totodile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Treecko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Torchic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Mudkip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Turtwig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Chimchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Piplup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Snivy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Tepig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Oshawott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Chespin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fennekin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Froakie</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Ditto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Mew</t>
   </si>
 </sst>
 </file>
@@ -362,14 +462,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -380,7 +490,119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2458,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE513147-87C5-D64C-83BF-099A92CC9F1F}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2583,4 +2805,743 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D5C407-6F48-9A4B-87CA-78D35022BD76}">
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>48</v>
+      </c>
+      <c r="R2" s="18">
+        <v>48</v>
+      </c>
+      <c r="S2" s="18">
+        <v>48</v>
+      </c>
+      <c r="T2" s="18">
+        <v>48</v>
+      </c>
+      <c r="U2" s="18">
+        <v>48</v>
+      </c>
+      <c r="V2" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>125</v>
+      </c>
+      <c r="E3">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>81</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>48</v>
+      </c>
+      <c r="R3" s="21">
+        <v>48</v>
+      </c>
+      <c r="S3" s="21">
+        <v>48</v>
+      </c>
+      <c r="T3" s="21">
+        <v>48</v>
+      </c>
+      <c r="U3" s="21">
+        <v>48</v>
+      </c>
+      <c r="V3" s="22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+      <c r="D4">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>95</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>48</v>
+      </c>
+      <c r="R4" s="18">
+        <v>48</v>
+      </c>
+      <c r="S4" s="18">
+        <v>48</v>
+      </c>
+      <c r="T4" s="18">
+        <v>40</v>
+      </c>
+      <c r="U4" s="18">
+        <v>48</v>
+      </c>
+      <c r="V4" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>100</v>
+      </c>
+      <c r="R5" s="21">
+        <v>101</v>
+      </c>
+      <c r="S5" s="21">
+        <v>100</v>
+      </c>
+      <c r="T5" s="21">
+        <v>100</v>
+      </c>
+      <c r="U5" s="21">
+        <v>100</v>
+      </c>
+      <c r="V5" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>55</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>48</v>
+      </c>
+      <c r="R6" s="18">
+        <v>48</v>
+      </c>
+      <c r="S6" s="18">
+        <v>48</v>
+      </c>
+      <c r="T6" s="18">
+        <v>48</v>
+      </c>
+      <c r="U6" s="18">
+        <v>48</v>
+      </c>
+      <c r="V6" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>65</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>48</v>
+      </c>
+      <c r="R7" s="21">
+        <v>48</v>
+      </c>
+      <c r="S7" s="21">
+        <v>48</v>
+      </c>
+      <c r="T7" s="21">
+        <v>48</v>
+      </c>
+      <c r="U7" s="21">
+        <v>48</v>
+      </c>
+      <c r="V7" s="22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>95</v>
+      </c>
+      <c r="H8">
+        <v>130</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>48</v>
+      </c>
+      <c r="R8" s="18">
+        <v>48</v>
+      </c>
+      <c r="S8" s="18">
+        <v>48</v>
+      </c>
+      <c r="T8" s="18">
+        <v>48</v>
+      </c>
+      <c r="U8" s="18">
+        <v>48</v>
+      </c>
+      <c r="V8" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="13">
+        <v>45715</v>
+      </c>
+      <c r="L14">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="13">
+        <v>45715</v>
+      </c>
+      <c r="L15">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="13">
+        <v>45715</v>
+      </c>
+      <c r="L16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="13">
+        <v>45982</v>
+      </c>
+      <c r="L17">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="13">
+        <v>45982</v>
+      </c>
+      <c r="L18">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="13">
+        <v>45982</v>
+      </c>
+      <c r="L19">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="13">
+        <v>45982</v>
+      </c>
+      <c r="L20">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="13">
+        <v>45982</v>
+      </c>
+      <c r="L21">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="13">
+        <v>45982</v>
+      </c>
+      <c r="L22">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="13">
+        <v>45928</v>
+      </c>
+      <c r="L23">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="13">
+        <v>45928</v>
+      </c>
+      <c r="L24">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="13">
+        <v>45928</v>
+      </c>
+      <c r="L25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="13">
+        <v>45918</v>
+      </c>
+      <c r="L26">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="13">
+        <v>45918</v>
+      </c>
+      <c r="L27">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="13">
+        <v>45918</v>
+      </c>
+      <c r="L28">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="13">
+        <v>45942</v>
+      </c>
+      <c r="L29">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="13">
+        <v>45942</v>
+      </c>
+      <c r="L30">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="13">
+        <v>45942</v>
+      </c>
+      <c r="L31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:H8">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>48</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>130</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C8">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:H8">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+      <formula>10</formula>
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K31">
+    <cfRule type="timePeriod" dxfId="4" priority="4" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(K14,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K14,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="nextMonth">
+      <formula>AND(MONTH(K14)=MONTH(EDATE(TODAY(),0+1)),YEAR(K14)=YEAR(EDATE(TODAY(),0+1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:V8">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:V8">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>